--- a/user_credentials.xlsx
+++ b/user_credentials.xlsx
@@ -1,11 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="User credentials" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Login Messages" sheetId="2" state="visible" r:id="rId2"/>
@@ -13,52 +9,30 @@
     <sheet name="Order Details" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -66,138 +40,83 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7DC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -278,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -312,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -346,20 +267,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -481,527 +398,581 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="8.539999999999999" customWidth="1" style="8" min="1" max="1025"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="9">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>User ID</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>User Name</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="9">
-      <c r="A2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>standard_user</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>secret_sauce</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="9">
-      <c r="A3" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>locked_out_user</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>secret_sauce</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="9">
-      <c r="A4" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>problem_user</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>secret_sauce</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="9">
-      <c r="A5" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>performance_glitch_user</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>secret_sauce</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="8.539999999999999" customWidth="1" style="8" min="1" max="1025"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="9">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>User ID</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Login Message</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="9">
-      <c r="A2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="9">
-      <c r="A3" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Epic sadface: Sorry, this user has been locked out.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="9">
-      <c r="A4" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="9">
-      <c r="A5" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="8.539999999999999" customWidth="1" style="8" min="1" max="1025"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="9">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Product ID</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Product Name</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Price($)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="9">
-      <c r="A2" s="8" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Sauce Labs Backpack</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>carry.allTheThings() with the sleek, streamlined Sly Pack that melds uncompromising style with unequaled laptop and tablet protection.</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>29.99</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="9">
-      <c r="A3" s="8" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Sauce Labs Bike Light</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>A red light isn't the desired state in testing but it sure helps when riding your bike at night. Water-resistant with 3 lighting modes, 1 AAA battery included.</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>9.99</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="9">
-      <c r="A4" s="8" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Sauce Labs Bolt T-Shirt</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Get your testing superhero on with the Sauce Labs bolt T-shirt. From American Apparel, 100% ringspun combed cotton, heather gray with red bolt.</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>15.99</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="9">
-      <c r="A5" s="8" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Sauce Labs Fleece Jacket</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>It's not every day that you come across a midweight quarter-zip fleece jacket capable of handling everything from a relaxing day outdoors to a busy day at the office.</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>49.99</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="9">
-      <c r="A6" s="8" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Sauce Labs Onesie</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Rib snap infant onesie for the junior automation engineer in development. Reinforced 3-snap bottom closure, two-needle hemmed sleeved and bottom won't unravel.</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>7.99</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="9">
-      <c r="A7" s="8" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Test.allTheThings() T-Shirt (Red)</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>This classic Sauce Labs t-shirt is perfect to wear when cozying up to your keyboard to automate a few tests. Super-soft and comfy ringspun combed cotton.</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>15.99</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" s="9">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">Order ID </t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve">User ID </t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t xml:space="preserve">Product Name </t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t xml:space="preserve">Quantity </t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t xml:space="preserve">Total Price </t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Order Status</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="24.05" customHeight="1" s="9">
-      <c r="A2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>standard_user</t>
         </is>
       </c>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Sauce Labs Backpack</t>
         </is>
       </c>
-      <c r="D2" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="n">
-        <v>59.98</v>
-      </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="24.05" customHeight="1" s="9">
-      <c r="A3" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>standard_user</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Sauce Labs Bolt T-Shirt</t>
         </is>
       </c>
-      <c r="D3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="24.05" customHeight="1" s="9">
-      <c r="A4" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>problem_user</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Sauce Labs Fleece Jacket</t>
         </is>
       </c>
-      <c r="D4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>49.99</v>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Failure</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="24.05" customHeight="1" s="9">
-      <c r="A5" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>problem_user</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Sauce Labs Onesie</t>
         </is>
       </c>
-      <c r="D5" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>104.97</v>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Failure</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/user_credentials.xlsx
+++ b/user_credentials.xlsx
@@ -958,12 +958,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>104.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
